--- a/content/SD2020.xlsx
+++ b/content/SD2020.xlsx
@@ -428,16 +428,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>0.07532943832703114</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>(1</t>
@@ -450,16 +440,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.09153319381485084</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>(152</t>
@@ -472,16 +452,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.09153319381485084</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>(3</t>
@@ -494,16 +464,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.2043255529945566</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>(31</t>
@@ -516,16 +476,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.11347803172254847</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>(34</t>
@@ -538,16 +488,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.13237544508442387</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>(4</t>
@@ -560,16 +500,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.2043255529945566</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>(57</t>
@@ -582,16 +512,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.07042622446485095</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>(65</t>
@@ -604,16 +524,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.12960838843101502</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>(без</t>
@@ -626,16 +536,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.09972152260559813</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>(в</t>
@@ -648,16 +548,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.09900771367973091</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>(до</t>
@@ -670,16 +560,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.02455388701061943</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>(дол</t>
@@ -692,16 +572,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.039947790954764736</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>(за</t>
@@ -714,16 +584,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.05489122386747298</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>(кром</t>
@@ -736,16 +596,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.09972152260559812</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>(непокрыт</t>
@@ -758,16 +608,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.0698346567801815</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>(прав</t>
@@ -780,16 +620,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.10680928253399614</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>(убыток)</t>
@@ -802,16 +632,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>-0.034769373608776855</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>(участников)</t>
@@ -824,16 +644,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.1134780317225484</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>000</t>
@@ -846,16 +656,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.0493192551148512</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>009</t>
@@ -868,16 +668,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.05489122386747322</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>01.01.2022</t>
@@ -890,16 +680,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.07042622446485095</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>011</t>
@@ -912,16 +692,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.07341975081500472</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>032</t>
@@ -934,16 +704,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.08477808969288979</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>053</t>
@@ -956,16 +716,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.09785268271719766</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>061</t>
@@ -978,16 +728,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.2043255529945566</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>089)</t>
@@ -1000,16 +740,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0.054891223867473006</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>100</t>
@@ -1022,16 +752,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0.19434459051752284</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>103</t>
@@ -1044,16 +764,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>-0.03476937360877689</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>107</t>
@@ -1066,16 +776,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.03994779095476475</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>116</t>
@@ -1088,16 +788,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0.18375160420221245</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>117</t>
@@ -1110,16 +800,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0.0548912238674731</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>118</t>
@@ -1132,16 +812,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>0.13237544508442378</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>122</t>
@@ -1154,16 +824,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>0.06983465678018141</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>124</t>
@@ -1176,16 +836,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>0.05678579163692257</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>127</t>
@@ -1198,16 +848,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>0.13879047580550335</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>13</t>
@@ -1220,16 +860,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>0.09785268271719763</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>131</t>
@@ -1242,16 +872,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>0.05489122386747306</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D38" t="inlineStr">
         <is>
           <t>145</t>
@@ -1264,16 +884,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>0.06983465678018128</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D39" t="inlineStr">
         <is>
           <t>146</t>
@@ -1286,16 +896,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>0.08477808969288975</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>147</t>
@@ -1308,16 +908,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>0.1497831257143536</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>149</t>
@@ -1330,16 +920,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>0.08477808969288982</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D42" t="inlineStr">
         <is>
           <t>152</t>
@@ -1352,16 +932,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>0.20432555299455663</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>155</t>
@@ -1374,16 +944,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0.2640992846453902</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>156</t>
@@ -1396,16 +956,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>0.09153319381485084</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>162</t>
@@ -1418,16 +968,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>0.1744386871691401</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>166</t>
@@ -1440,16 +980,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>0.11466495551830663</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>17</t>
@@ -1462,16 +992,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>0.025004358042056488</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
           <t>173</t>
@@ -1484,16 +1004,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0.025004358042056498</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>182</t>
@@ -1506,16 +1016,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>0.06983465678018144</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>191</t>
@@ -1528,16 +1028,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>0.2043255529945566</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>191)</t>
@@ -1550,16 +1040,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>0.18266347565841867</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D52" t="inlineStr">
         <is>
           <t>192</t>
@@ -1572,16 +1052,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>0.010060925129348182</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D53" t="inlineStr">
         <is>
           <t>197</t>
@@ -1594,16 +1064,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>0.21469866167822968</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D54" t="inlineStr">
         <is>
           <t>198</t>
@@ -1616,16 +1076,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>0.19558441032596843</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D55" t="inlineStr">
         <is>
           <t>2022</t>
@@ -1638,16 +1088,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>0.0734197508150048</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>2023</t>
@@ -1660,16 +1100,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>0.11264016316485076</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D57" t="inlineStr">
         <is>
           <t>21</t>
@@ -1682,16 +1112,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>0.24915585173268184</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D58" t="inlineStr">
         <is>
           <t>215</t>
@@ -1704,16 +1124,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>0.09153319381485085</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D59" t="inlineStr">
         <is>
           <t>219</t>
@@ -1726,16 +1136,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>0.2342124188199733</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>239</t>
@@ -1748,16 +1148,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>0.03994779095476491</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>244</t>
@@ -1770,16 +1160,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>0.07042622446485095</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>247)</t>
@@ -1792,16 +1172,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>0.0847780896928898</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>248</t>
@@ -1814,16 +1184,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>0.03994779095476491</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D64" t="inlineStr">
         <is>
           <t>250</t>
@@ -1836,16 +1196,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>0.11466495551830641</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D65" t="inlineStr">
         <is>
           <t>253</t>
@@ -1858,16 +1208,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>0.054891223867473096</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>254</t>
@@ -1880,16 +1220,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>0.1744386871691401</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>265</t>
@@ -1902,16 +1232,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>0.03994779095476475</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>269</t>
@@ -1924,16 +1244,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>0.05489122386747311</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>274</t>
@@ -1946,16 +1256,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>0.03994779095476477</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D70" t="inlineStr">
         <is>
           <t>285</t>
@@ -1968,16 +1268,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>0.2640992846453902</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>291</t>
@@ -1990,16 +1280,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>0.099007713679731</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>3.11</t>
@@ -2012,16 +1292,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>0.09972152260559809</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D73" t="inlineStr">
         <is>
           <t>3.12</t>
@@ -2034,16 +1304,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0.09972152260559809</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D74" t="inlineStr">
         <is>
           <t>3.13</t>
@@ -2056,16 +1316,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>0.06983465678018146</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>3.14</t>
@@ -2078,16 +1328,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>0.09972152260559802</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>304</t>
@@ -2100,16 +1340,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>0.281099671983643</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D77" t="inlineStr">
         <is>
           <t>31</t>
@@ -2122,16 +1352,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>0.08477808969288973</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>312</t>
@@ -2144,16 +1364,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>0.06983465678018128</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>316</t>
@@ -2166,16 +1376,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>0.18336794437487164</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>322</t>
@@ -2188,16 +1388,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>0.08477808969288993</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D81" t="inlineStr">
         <is>
           <t>327</t>
@@ -2210,16 +1400,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>0.13237544508442378</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D82" t="inlineStr">
         <is>
           <t>334</t>
@@ -2232,16 +1412,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>0.10402932504161076</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>337</t>
@@ -2254,16 +1424,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>0.11466495551830663</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D84" t="inlineStr">
         <is>
           <t>339</t>
@@ -2276,16 +1436,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>0.13237544508442387</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D85" t="inlineStr">
         <is>
           <t>342)</t>
@@ -2298,16 +1448,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>0.03994779095476491</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D86" t="inlineStr">
         <is>
           <t>356</t>
@@ -2320,16 +1460,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>0.1146649555183066</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D87" t="inlineStr">
         <is>
           <t>389</t>
@@ -2342,16 +1472,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>0.11347803172254847</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>394)</t>
@@ -2364,16 +1484,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>0.025004358042056442</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>405</t>
@@ -2386,16 +1496,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>0.08477808969288966</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>408</t>
@@ -2408,16 +1508,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>0.11264016316485007</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D91" t="inlineStr">
         <is>
           <t>427</t>
@@ -2430,16 +1520,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>0.11264016316485007</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>43</t>
@@ -2452,16 +1532,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>0.20780087627706464</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>435</t>
@@ -2474,16 +1544,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>0.129608388431015</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>449</t>
@@ -2496,16 +1556,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>0.03994779095476475</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>468</t>
@@ -2518,16 +1568,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>0.2043255529945566</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>469</t>
@@ -2540,16 +1580,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>0.039947790954764834</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>47</t>
@@ -2562,16 +1592,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>0.23421241881997323</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>478</t>
@@ -2584,16 +1604,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>0.054891223867473</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>484</t>
@@ -2606,16 +1616,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>0.09972152260559812</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>486</t>
@@ -2628,16 +1628,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>0.06983465678018148</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D101" t="inlineStr">
         <is>
           <t>5.2</t>
@@ -2650,16 +1640,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>0.03994779095476463</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>51</t>
@@ -2672,16 +1652,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>0.19706804056484942</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D103" t="inlineStr">
         <is>
           <t>511</t>
@@ -2694,16 +1664,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>0.21469866167822968</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D104" t="inlineStr">
         <is>
           <t>514</t>
@@ -2716,16 +1676,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>0.24445027413035367</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>515</t>
@@ -2738,16 +1688,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>-0.004882507783360127</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D106" t="inlineStr">
         <is>
           <t>529</t>
@@ -2760,16 +1700,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>0.09972152260559809</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>539</t>
@@ -2782,16 +1712,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>0.13237544508442375</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D108" t="inlineStr">
         <is>
           <t>545</t>
@@ -2804,16 +1724,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>0.21518434273134698</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>558</t>
@@ -2826,16 +1736,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>0.11466495551830634</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D110" t="inlineStr">
         <is>
           <t>563</t>
@@ -2848,16 +1748,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>0.09153319381485084</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>566)</t>
@@ -2870,16 +1760,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>0.03994779095476479</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>586</t>
@@ -2892,16 +1772,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>0.13237544508442375</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D113" t="inlineStr">
         <is>
           <t>60</t>
@@ -2914,16 +1784,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>0.2688832060325462</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D114" t="inlineStr">
         <is>
           <t>609</t>
@@ -2936,16 +1796,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>-0.004882507783360137</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D115" t="inlineStr">
         <is>
           <t>629</t>
@@ -2958,16 +1808,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>0.1955844103259683</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D116" t="inlineStr">
         <is>
           <t>639</t>
@@ -2980,16 +1820,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>0.025004358042056463</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>643</t>
@@ -3002,16 +1832,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>0.03994779095476473</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>653</t>
@@ -3024,16 +1844,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>0.06983465678018148</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>672</t>
@@ -3046,16 +1856,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>0.08477808969288977</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>679</t>
@@ -3068,16 +1868,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>0.06983465678018141</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>683</t>
@@ -3090,16 +1880,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>0.07568320499879787</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D122" t="inlineStr">
         <is>
           <t>686</t>
@@ -3112,16 +1892,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>0.06983465678018144</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D123" t="inlineStr">
         <is>
           <t>698</t>
@@ -3134,16 +1904,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>0.1229267384034861</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D124" t="inlineStr">
         <is>
           <t>704</t>
@@ -3156,16 +1916,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>0.09153319381485084</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>718)</t>
@@ -3178,16 +1928,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>0.13237544508442375</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D126" t="inlineStr">
         <is>
           <t>729</t>
@@ -3200,16 +1940,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>0.11347803172254847</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D127" t="inlineStr">
         <is>
           <t>742</t>
@@ -3222,16 +1952,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>0.09972152260559813</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>756</t>
@@ -3244,16 +1964,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>0.025004358042056463</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>760</t>
@@ -3266,16 +1976,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>0.025004358042056467</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D130" t="inlineStr">
         <is>
           <t>771</t>
@@ -3288,16 +1988,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>0.11524409444232221</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>776</t>
@@ -3310,16 +2000,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>0.054891223867473006</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>780</t>
@@ -3332,16 +2012,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>0.20270222769480564</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>786</t>
@@ -3354,16 +2024,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>-0.03510862228514828</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>810</t>
@@ -3376,16 +2036,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>0.01006092512934818</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>817</t>
@@ -3398,16 +2048,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>0.06983465678018144</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>829</t>
@@ -3420,16 +2060,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>0.24915585173268184</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>834</t>
@@ -3442,16 +2072,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>0.1152440944423222</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D138" t="inlineStr">
         <is>
           <t>850</t>
@@ -3464,16 +2084,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>0.0847780896928898</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>854</t>
@@ -3486,16 +2096,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>0.05489122386747304</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D140" t="inlineStr">
         <is>
           <t>859</t>
@@ -3508,16 +2108,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>0.1146649555183065</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D141" t="inlineStr">
         <is>
           <t>871</t>
@@ -3530,16 +2120,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>0.2640992846453902</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>884</t>
@@ -3552,16 +2132,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>0.20432555299455663</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>890</t>
@@ -3574,16 +2144,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>0.13237544508442387</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D144" t="inlineStr">
         <is>
           <t>895</t>
@@ -3596,16 +2156,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>0.054891223867473006</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D145" t="inlineStr">
         <is>
           <t>913</t>
@@ -3618,16 +2168,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>0.03994779095476479</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>957</t>
@@ -3640,16 +2180,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>-0.01982594069606846</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D147" t="inlineStr">
         <is>
           <t>963</t>
@@ -3662,16 +2192,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>0.09972152260559809</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D148" t="inlineStr">
         <is>
           <t>966</t>
@@ -3684,16 +2204,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>0.1594952542564315</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D149" t="inlineStr">
         <is>
           <t>974</t>
@@ -3706,16 +2216,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>0.11264016316485007</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D150" t="inlineStr">
         <is>
           <t>993</t>
@@ -3728,16 +2228,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>0.039947790954764625</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>996</t>
@@ -3750,16 +2240,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>0.03677035296171575</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>998</t>
@@ -3772,16 +2252,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>0.054891223867473284</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D153" t="inlineStr">
         <is>
           <t>ii</t>
@@ -3794,16 +2264,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>0.06983465678018161</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D154" t="inlineStr">
         <is>
           <t>iii</t>
@@ -3816,16 +2276,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>0.05489122386747326</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>iv</t>
@@ -3838,16 +2288,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>0.07857488218867088</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>noc</t>
@@ -3860,16 +2300,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>-0.07959967234690216</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>акт</t>
@@ -3882,16 +2312,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>-0.023605155192842453</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>актив</t>
@@ -3904,16 +2324,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>-0.07317784059815136</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>баланс</t>
@@ -3926,16 +2336,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>-0.034769373608776896</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>ввп</t>
@@ -3948,16 +2348,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>-0.004277488906121763</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>внеоборотн</t>
@@ -3970,16 +2360,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>0.02500435804205644</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D162" t="inlineStr">
         <is>
           <t>валов</t>
@@ -3992,16 +2372,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>0.2367165357787636</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>величин</t>
@@ -4014,16 +2384,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>-0.03476937360877683</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D164" t="inlineStr">
         <is>
           <t>выплат</t>
@@ -4036,16 +2396,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>0.04319694959815122</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D165" t="inlineStr">
         <is>
           <t>выручк</t>
@@ -4058,16 +2408,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>0.09592672954628859</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D166" t="inlineStr">
         <is>
           <t>государствен</t>
@@ -4080,16 +2420,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>-0.049294094734611806</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D167" t="inlineStr">
         <is>
           <t>долгосрочн</t>
@@ -4102,16 +2432,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>-0.03870110841930161</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D168" t="inlineStr">
         <is>
           <t>дебиторск</t>
@@ -4124,16 +2444,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>0.13626785127802604</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>денежн</t>
@@ -4146,16 +2456,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>0.046042782103180024</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>дивиденд</t>
@@ -4168,16 +2468,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>0.06722875473380044</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>добавочн</t>
@@ -4190,16 +2480,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>0.07936502068445078</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D172" t="inlineStr">
         <is>
           <t>добыч</t>
@@ -4212,16 +2492,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>0.03788837827504708</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D173" t="inlineStr">
         <is>
           <t>долг</t>
@@ -4234,16 +2504,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>0.036770352961715755</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D174" t="inlineStr">
         <is>
           <t>дол</t>
@@ -4256,16 +2516,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>0.20415088228431136</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D175" t="inlineStr">
         <is>
           <t>доход</t>
@@ -4278,16 +2528,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>0.024553887010619405</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D176" t="inlineStr">
         <is>
           <t>доходн</t>
@@ -4300,16 +2540,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>0.08012695800081773</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D177" t="inlineStr">
         <is>
           <t>за</t>
@@ -4322,16 +2552,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>-0.005172805059311072</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D178" t="inlineStr">
         <is>
           <t>задолжен</t>
@@ -4344,16 +2564,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>-0.06096137464705504</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D179" t="inlineStr">
         <is>
           <t>заемн</t>
@@ -4366,16 +2576,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>-0.021978671409487206</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D180" t="inlineStr">
         <is>
           <t>займ</t>
@@ -4388,16 +2588,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>0.004158286134960469</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D181" t="inlineStr">
         <is>
           <t>запас</t>
@@ -4410,16 +2600,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>0.029474571993745095</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D182" t="inlineStr">
         <is>
           <t>изменен</t>
@@ -4432,16 +2612,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>0.0712765502021989</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D183" t="inlineStr">
         <is>
           <t>ит</t>
@@ -4454,16 +2624,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>0.19240577840071924</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D184" t="inlineStr">
         <is>
           <t>капита</t>
@@ -4476,16 +2636,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>-0.049294094734611806</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D185" t="inlineStr">
         <is>
           <t>краткосрочн</t>
@@ -4498,16 +2648,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>0.024553887010619425</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D186" t="inlineStr">
         <is>
           <t>капитальн</t>
@@ -4520,16 +2660,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>0.0399477909547649</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D187" t="inlineStr">
         <is>
           <t>кредиторск</t>
@@ -4542,16 +2672,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>0.006480890287412898</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D188" t="inlineStr">
         <is>
           <t>материальн</t>
@@ -4564,16 +2684,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>0.09873422960879538</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D189" t="inlineStr">
         <is>
           <t>ннк</t>
@@ -4586,16 +2696,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>0.039947790954764965</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D190" t="inlineStr">
         <is>
           <t>наименован</t>
@@ -4608,16 +2708,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>0.08488559030506324</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>налог</t>
@@ -4630,16 +2720,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>-0.003005630278220494</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D192" t="inlineStr">
         <is>
           <t>налогов</t>
@@ -4652,16 +2732,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>0.06716688415474684</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D193" t="inlineStr">
         <is>
           <t>национальн</t>
@@ -4674,16 +2744,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>-0.03146519197512055</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D194" t="inlineStr">
         <is>
           <t>нематериальн</t>
@@ -4696,16 +2756,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>0.044426972549946375</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D195" t="inlineStr">
         <is>
           <t>нераспределен</t>
@@ -4718,16 +2768,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>-0.012492150843853841</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D196" t="inlineStr">
         <is>
           <t>оборотн</t>
@@ -4740,16 +2780,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>-0.04036467798399323</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D197" t="inlineStr">
         <is>
           <t>обязательств</t>
@@ -4762,16 +2792,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>0.0945008584658816</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D198" t="inlineStr">
         <is>
           <t>общ</t>
@@ -4784,16 +2804,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>0.034940451984313</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D199" t="inlineStr">
         <is>
           <t>операцион</t>
@@ -4806,16 +2816,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>0.07288653424684641</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D200" t="inlineStr">
         <is>
           <t>основн</t>
@@ -4828,16 +2828,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>0.010060925129348202</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D201" t="inlineStr">
         <is>
           <t>остаток</t>
@@ -4850,16 +2840,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>0.04442697254994637</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D202" t="inlineStr">
         <is>
           <t>отложен</t>
@@ -4872,16 +2852,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>-0.019825940696068488</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D203" t="inlineStr">
         <is>
           <t>отчет</t>
@@ -4894,16 +2864,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>0.036770352961715706</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D204" t="inlineStr">
         <is>
           <t>оценочн</t>
@@ -4916,16 +2876,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>-0.0976107725003441</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D205" t="inlineStr">
         <is>
           <t>пасс</t>
@@ -4938,16 +2888,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>0.059129140908740364</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D206" t="inlineStr">
         <is>
           <t>переоценк</t>
@@ -4960,16 +2900,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>0.08237305481247985</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>перечислен</t>
@@ -4982,16 +2912,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>0.015973747633798333</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D208" t="inlineStr">
         <is>
           <t>платеж</t>
@@ -5004,16 +2924,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>0.022724159813771686</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D209" t="inlineStr">
         <is>
           <t>поступлен</t>
@@ -5026,16 +2936,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>0.13010010850381695</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D210" t="inlineStr">
         <is>
           <t>прибыл</t>
@@ -5048,16 +2948,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>0.049641398504226976</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D211" t="inlineStr">
         <is>
           <t>продаж</t>
@@ -5070,16 +2960,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>-0.03146519197512061</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D212" t="inlineStr">
         <is>
           <t>процент</t>
@@ -5092,16 +2972,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>0.0018762809260726046</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D213" t="inlineStr">
         <is>
           <t>проч</t>
@@ -5114,16 +2984,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>-0.08838431536892066</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D214" t="inlineStr">
         <is>
           <t>резерв</t>
@@ -5136,16 +2996,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>-0.02584082429888471</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D215" t="inlineStr">
         <is>
           <t>работник</t>
@@ -5158,16 +3008,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>-0.0497128065214853</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>разведк</t>
@@ -5180,16 +3020,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>0.014263823157249412</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D217" t="inlineStr">
         <is>
           <t>резервн</t>
@@ -5202,16 +3032,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>-0.03451166567492246</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D218" t="inlineStr">
         <is>
           <t>результат</t>
@@ -5224,16 +3044,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>0.1307866726256616</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D219" t="inlineStr">
         <is>
           <t>сальд</t>
@@ -5246,16 +3056,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>0.010060925129348204</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D220" t="inlineStr">
         <is>
           <t>собствен</t>
@@ -5268,16 +3068,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>-0.019825940696068474</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D221" t="inlineStr">
         <is>
           <t>соотношен</t>
@@ -5290,16 +3080,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>0.05663576841849012</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D222" t="inlineStr">
         <is>
           <t>стран</t>
@@ -5312,16 +3092,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>-0.017169982922846997</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D223" t="inlineStr">
         <is>
           <t>текущ</t>
@@ -5334,16 +3104,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>0.0036708368419391974</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D224" t="inlineStr">
         <is>
           <t>трансферт</t>
@@ -5356,16 +3116,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>0.06716688415474682</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D225" t="inlineStr">
         <is>
           <t>увеличен</t>
@@ -5378,16 +3128,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>0.09555479112627883</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D226" t="inlineStr">
         <is>
           <t>уменьшен</t>
@@ -5400,16 +3140,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>0.049319255114851156</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D227" t="inlineStr">
         <is>
           <t>уставный</t>
@@ -5422,16 +3152,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>-0.009355155129641277</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D228" t="inlineStr">
         <is>
           <t>уставн</t>
@@ -5444,16 +3164,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>0.04422808800698456</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D229" t="inlineStr">
         <is>
           <t>финансов</t>
@@ -5466,16 +3176,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>0.170941908902686</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D230" t="inlineStr">
         <is>
           <t>чист</t>
@@ -5488,16 +3188,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>-0.0016464885137388874</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D231" t="inlineStr">
         <is>
           <t>акц</t>
@@ -5510,16 +3200,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>0.010060925129348204</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D232" t="inlineStr">
         <is>
           <t>акции,</t>
@@ -5532,16 +3212,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>0.010060925129348204</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D233" t="inlineStr">
         <is>
           <t>акционер</t>
@@ -5554,16 +3224,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>-0.004882507783360127</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D234" t="inlineStr">
         <is>
           <t>аналогичн</t>
@@ -5576,16 +3236,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>0.09555095496564357</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>баррел</t>
@@ -5598,16 +3248,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>0.025004358042056557</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D236" t="inlineStr">
         <is>
           <t>богатств</t>
@@ -5620,16 +3260,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>0.05663576841849001</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D237" t="inlineStr">
         <is>
           <t>будущ</t>
@@ -5642,16 +3272,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>0.0367703529617158</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D238" t="inlineStr">
         <is>
           <t>бумаг</t>
@@ -5664,16 +3284,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>-0.004882507783360137</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D239" t="inlineStr">
         <is>
           <t>вексел</t>
@@ -5686,16 +3296,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>0.012337421059523072</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D240" t="inlineStr">
         <is>
           <t>вклад</t>
@@ -5708,16 +3308,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>-0.006922149473371003</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D241" t="inlineStr">
         <is>
           <t>включа</t>
@@ -5730,16 +3320,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>0.02495649179753966</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D242" t="inlineStr">
         <is>
           <t>вложен</t>
@@ -5752,16 +3332,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>0.03677035296171574</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>внутрен</t>
@@ -5774,16 +3344,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>0.0100609251293482</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>возврат</t>
@@ -5796,16 +3356,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>0.02863727140404241</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D245" t="inlineStr">
         <is>
           <t>всег</t>
@@ -5818,16 +3368,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>0.08841472736442046</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D246" t="inlineStr">
         <is>
           <t>всего:</t>
@@ -5840,16 +3380,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>0.09972152260559813</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D247" t="inlineStr">
         <is>
           <t>все</t>
@@ -5862,16 +3392,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>0.010060925129348204</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D248" t="inlineStr">
         <is>
           <t>выкуплен</t>
@@ -5884,16 +3404,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>-0.0069221494733709985</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D249" t="inlineStr">
         <is>
           <t>выпуск</t>
@@ -5906,16 +3416,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>0.281099671983643</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D250" t="inlineStr">
         <is>
           <t>г.</t>
@@ -5928,16 +3428,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>0.11324337415303064</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D251" t="inlineStr">
         <is>
           <t>газ</t>
@@ -5950,16 +3440,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>0.0614903834319325</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D252" t="inlineStr">
         <is>
           <t>год</t>
@@ -5972,16 +3452,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>-0.019825940696068474</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D253" t="inlineStr">
         <is>
           <t>года)</t>
@@ -5994,16 +3464,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>0.08563621676610117</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D254" t="inlineStr">
         <is>
           <t>государству)</t>
@@ -6016,16 +3476,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>0.281099671983643</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D255" t="inlineStr">
         <is>
           <t>декабр</t>
@@ -6038,16 +3488,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>0.026184223957341712</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D256" t="inlineStr">
         <is>
           <t>деятельн</t>
@@ -6060,16 +3500,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>0.024856809472559617</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D257" t="inlineStr">
         <is>
           <t>до</t>
@@ -6082,16 +3512,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>0.025004358042056557</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D258" t="inlineStr">
         <is>
           <t>добавлен</t>
@@ -6104,16 +3524,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>0.03501591117072102</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D259" t="inlineStr">
         <is>
           <t>долгов</t>
@@ -6126,16 +3536,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>-0.01982594069606848</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D260" t="inlineStr">
         <is>
           <t>дополнительн</t>
@@ -6148,16 +3548,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>-0.01982594069606848</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D261" t="inlineStr">
         <is>
           <t>доходы,</t>
@@ -6170,16 +3560,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>0.08673604257086084</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D262" t="inlineStr">
         <is>
           <t>друг</t>
@@ -6192,16 +3572,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>0.024553887010619425</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D263" t="inlineStr">
         <is>
           <t>затрат</t>
@@ -6214,16 +3584,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>0.14455182134372355</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D264" t="inlineStr">
         <is>
           <t>здания,</t>
@@ -6236,16 +3596,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>0.14455182134372355</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D265" t="inlineStr">
         <is>
           <t>земельн</t>
@@ -6258,16 +3608,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>0.05663576841849023</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D266" t="inlineStr">
         <is>
           <t>имуществ</t>
@@ -6280,16 +3620,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>0.0036708368419391935</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D267" t="inlineStr">
         <is>
           <t>инвестицион</t>
@@ -6302,16 +3632,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>0.010060925129348206</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D268" t="inlineStr">
         <is>
           <t>ин</t>
@@ -6324,16 +3644,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>0.039947790954764736</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D269" t="inlineStr">
         <is>
           <t>исключен</t>
@@ -6346,16 +3656,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>-0.060961374647055096</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D270" t="inlineStr">
         <is>
           <t>исправлен</t>
@@ -6368,16 +3668,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>0.02500435804205656</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D271" t="inlineStr">
         <is>
           <t>их</t>
@@ -6390,16 +3680,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>0.02455388701061942</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D272" t="inlineStr">
         <is>
           <t>капитал,</t>
@@ -6412,16 +3692,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>-0.01982594069606848</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>количеств</t>
@@ -6434,16 +3704,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>0.09972152260559813</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>компании)</t>
@@ -6456,16 +3716,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>0.0728865342468465</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D275" t="inlineStr">
         <is>
           <t>корректировк</t>
@@ -6478,16 +3728,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>-0.07786587255511092</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D276" t="inlineStr">
         <is>
           <t>корректировок</t>
@@ -6500,16 +3740,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>-0.024311976793766076</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D277" t="inlineStr">
         <is>
           <t>котор</t>
@@ -6522,16 +3752,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>-0.028108122103991395</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>кредит</t>
@@ -6544,16 +3764,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>-0.0497128065214852</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D279" t="inlineStr">
         <is>
           <t>курс</t>
@@ -6566,16 +3776,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>-0.021978671409487217</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D280" t="inlineStr">
         <is>
           <t>лиц</t>
@@ -6588,16 +3788,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>0.09972152260559813</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D281" t="inlineStr">
         <is>
           <t>масштаб</t>
@@ -6610,16 +3800,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>0.14455182134372355</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D282" t="inlineStr">
         <is>
           <t>машины,</t>
@@ -6632,16 +3812,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>0.039947790954764896</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D283" t="inlineStr">
         <is>
           <t>месторожден</t>
@@ -6654,16 +3824,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>-0.028108122103991395</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D284" t="inlineStr">
         <is>
           <t>непосредствен</t>
@@ -6676,16 +3836,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>0.010060925129348202</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D285" t="inlineStr">
         <is>
           <t>непрофильн</t>
@@ -6698,16 +3848,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>0.061203284863908455</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D286" t="inlineStr">
         <is>
           <t>нефтепродукт</t>
@@ -6720,16 +3860,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>0.0959267295462886</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D287" t="inlineStr">
         <is>
           <t>нефт</t>
@@ -6742,16 +3872,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>0.061203284863908455</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D288" t="inlineStr">
         <is>
           <t>нефти,</t>
@@ -6764,16 +3884,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>0.014263823157249408</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D289" t="inlineStr">
         <is>
           <t>номинальн</t>
@@ -6786,16 +3896,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>0.14455182134372355</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D290" t="inlineStr">
         <is>
           <t>оборудование,</t>
@@ -6808,16 +3908,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>0.12960838843101521</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D291" t="inlineStr">
         <is>
           <t>объект</t>
@@ -6830,16 +3920,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>0.0036708368419391918</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D292" t="inlineStr">
         <is>
           <t>одн</t>
@@ -6852,16 +3932,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>0.010060925129348211</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D293" t="inlineStr">
         <is>
           <t>оператор</t>
@@ -6874,16 +3944,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>0.06953843083753039</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D294" t="inlineStr">
         <is>
           <t>операц</t>
@@ -6896,16 +3956,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>-0.004882507783360142</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D295" t="inlineStr">
         <is>
           <t>операций,</t>
@@ -6918,16 +3968,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>0.0782092722135681</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D296" t="inlineStr">
         <is>
           <t>организац</t>
@@ -6940,16 +3980,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>0.12980565764064644</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D297" t="inlineStr">
         <is>
           <t>орган</t>
@@ -6962,16 +3992,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>-0.028108122103991395</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D298" t="inlineStr">
         <is>
           <t>относя</t>
@@ -6984,16 +4004,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>0.1108326165093799</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D299" t="inlineStr">
         <is>
           <t>отчетн</t>
@@ -7006,16 +4016,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>-0.060961374647055096</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D300" t="inlineStr">
         <is>
           <t>ошибок</t>
@@ -7028,16 +4028,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>0.06983465678018155</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D301" t="inlineStr">
         <is>
           <t>передач</t>
@@ -7050,16 +4040,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>0.12960838843101502</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D302" t="inlineStr">
         <is>
           <t>переоценки)</t>
@@ -7072,16 +4052,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>0.14630813209536297</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D303" t="inlineStr">
         <is>
           <t>период</t>
@@ -7094,16 +4064,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>-0.03510862228514842</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D304" t="inlineStr">
         <is>
           <t>платежей,</t>
@@ -7116,16 +4076,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>0.003670836841939202</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D305" t="inlineStr">
         <is>
           <t>поисков</t>
@@ -7138,16 +4088,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>0.012337421059523129</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D306" t="inlineStr">
         <is>
           <t>показател</t>
@@ -7160,16 +4100,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>0.10134609594374663</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D307" t="inlineStr">
         <is>
           <t>политик</t>
@@ -7182,16 +4112,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>-0.004882507783360145</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D308" t="inlineStr">
         <is>
           <t>получен</t>
@@ -7204,16 +4124,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>0.01894042467870822</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D309" t="inlineStr">
         <is>
           <t>посл</t>
@@ -7226,16 +4136,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>0.0969786937934785</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D310" t="inlineStr">
         <is>
           <t>поток</t>
@@ -7248,16 +4148,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>0.09128011389276601</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D311" t="inlineStr">
         <is>
           <t>правительств</t>
@@ -7270,16 +4160,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>-0.004882507783360131</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>предоставлен</t>
@@ -7292,16 +4172,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>0.034940451984312955</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D313" t="inlineStr">
         <is>
           <t>приобретен</t>
@@ -7314,16 +4184,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>0.12960838843101521</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D314" t="inlineStr">
         <is>
           <t>природопользован</t>
@@ -7336,16 +4196,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>0.07341975081500479</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D315" t="inlineStr">
         <is>
           <t>происхожден</t>
@@ -7358,16 +4208,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>0.0712765502021989</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D316" t="inlineStr">
         <is>
           <t>раздел</t>
@@ -7380,16 +4220,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>-0.01982594069606849</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D317" t="inlineStr">
         <is>
           <t>разработок</t>
@@ -7402,16 +4232,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>0.01442417847132357</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D318" t="inlineStr">
         <is>
           <t>расход</t>
@@ -7424,16 +4244,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>-0.01982594069606848</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D319" t="inlineStr">
         <is>
           <t>расходы,</t>
@@ -7446,16 +4256,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>-0.028108122103991395</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D320" t="inlineStr">
         <is>
           <t>реорганизац</t>
@@ -7468,16 +4268,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>0.03994779095476481</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D321" t="inlineStr">
         <is>
           <t>ресурс</t>
@@ -7490,16 +4280,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>0.02500435804205654</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D322" t="inlineStr">
         <is>
           <t>рубеж</t>
@@ -7512,16 +4292,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>0.039947790954764896</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D323" t="inlineStr">
         <is>
           <t>рубежом?</t>
@@ -7534,16 +4304,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>0.03677035296171574</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>рынк</t>
@@ -7556,16 +4316,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>0.08563621676610148</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D325" t="inlineStr">
         <is>
           <t>с:</t>
@@ -7578,16 +4328,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>0.036752500692075564</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D326" t="inlineStr">
         <is>
           <t>связ</t>
@@ -7600,16 +4340,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>-0.0497128065214853</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D327" t="inlineStr">
         <is>
           <t>сейсморазведк</t>
@@ -7622,16 +4352,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>-0.04874490869595871</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D328" t="inlineStr">
         <is>
           <t>собственник</t>
@@ -7644,16 +4364,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>0.010468644664177816</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D329" t="inlineStr">
         <is>
           <t>средств</t>
@@ -7666,16 +4376,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>0.018940424678708236</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D330" t="inlineStr">
         <is>
           <t>стоимост</t>
@@ -7688,16 +4388,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>0.035449795787869776</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D331" t="inlineStr">
         <is>
           <t>сумм</t>
@@ -7710,16 +4400,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>0.00223604516035498</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D332" t="inlineStr">
         <is>
           <t>том</t>
@@ -7732,16 +4412,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>0.0399477909547647</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D333" t="inlineStr">
         <is>
           <t>требован</t>
@@ -7754,16 +4424,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>-0.07959967234690214</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D334" t="inlineStr">
         <is>
           <t>убыток</t>
@@ -7776,16 +4436,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>0.05489122386747328</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D335" t="inlineStr">
         <is>
           <t>убыток)</t>
@@ -7798,16 +4448,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>0.05219674808545492</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D336" t="inlineStr">
         <is>
           <t>уплат</t>
@@ -7820,16 +4460,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>0.12980565764064644</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>управлен</t>
@@ -7842,16 +4472,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>0.010060925129348182</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>услуг</t>
@@ -7864,16 +4484,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>0.06120328486390844</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>участ</t>
@@ -7886,16 +4496,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>0.02455388701061943</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>участия)</t>
@@ -7908,16 +4508,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>0.14455182134372355</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>участки,</t>
@@ -7930,16 +4520,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>-0.0347693736087769</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>участник</t>
@@ -7952,16 +4532,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>0.0728865342468465</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D343" t="inlineStr">
         <is>
           <t>учетн</t>
@@ -7974,16 +4544,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>0.010060925129348051</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D344" t="inlineStr">
         <is>
           <t>фонд,</t>
@@ -7996,16 +4556,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>0.00017169982922847997</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D345" t="inlineStr">
         <is>
           <t>ценност</t>
@@ -8018,16 +4568,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>0.04604278210317985</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D346" t="inlineStr">
         <is>
           <t>цен</t>
@@ -8040,16 +4580,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>0.0997215226055985</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D347" t="inlineStr">
         <is>
           <t>числ</t>
@@ -8062,16 +4592,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>-0.0405808861808333</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D348" t="inlineStr">
         <is>
           <t>числе:</t>
@@ -8084,16 +4604,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>0.15826521933754656</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D349" t="inlineStr">
         <is>
           <t>эквивалент</t>
@@ -8106,16 +4616,6 @@
           <t>0</t>
         </is>
       </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>0.06983465678018132</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="D350" t="inlineStr">
         <is>
           <t>эквивалентов)</t>
@@ -8126,16 +4626,6 @@
       <c r="A351" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>-0.028108122103991395</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>0.0</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
